--- a/jpcore-r4/feature/改行テスト/StructureDefinition-JP-ServiceRequest.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-JP-ServiceRequest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="438">
   <si>
     <t>Property</t>
   </si>
@@ -152,10 +152,6 @@
     <t>診断調査、治療、手術などのサービスの依頼記録。</t>
   </si>
   <si>
-    <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}prr-1:コードが存在する場合に限り、注文詳細は存在するものとします。 {orderDetail.empty() or code.exists()}</t>
-  </si>
-  <si>
     <t>Request</t>
   </si>
   <si>
@@ -206,79 +202,79 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t>ServiceRequest.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>拡張子は常にURLで切り片にされます。</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ServiceRequest.meta.versionId</t>
+  </si>
+  <si>
+    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
+  </si>
+  <si>
+    <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
+  </si>
+  <si>
+    <t>サーバーがこの値を割り当て、クライアントが指定した値を無視する。ただし、サーバーが更新/削除時にバージョンの整合性を強制する場合を除く。</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>ServiceRequest.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>エレメント相互参照のためのユニークID</t>
-  </si>
-  <si>
-    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>ServiceRequest.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>実装によって定義される追加コンテンツ</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
-  </si>
-  <si>
-    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>拡張子は常にURLで切り片にされます。</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ServiceRequest.meta.versionId</t>
-  </si>
-  <si>
-    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
-  </si>
-  <si>
-    <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
-  </si>
-  <si>
-    <t>サーバーがこの値を割り当て、クライアントが指定した値を無視する。ただし、サーバーが更新/削除時にバージョンの整合性を強制する場合を除く。</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
   </si>
   <si>
     <t>ServiceRequest.meta.lastUpdated</t>
@@ -1857,16 +1853,16 @@
         <v>40</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="AM1" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>40</v>
@@ -1877,10 +1873,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1891,28 +1887,28 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1962,13 +1958,13 @@
         <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>40</v>
@@ -1994,10 +1990,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2008,25 +2004,25 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2077,19 +2073,19 @@
         <v>40</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>40</v>
@@ -2109,10 +2105,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2123,7 +2119,7 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
@@ -2135,13 +2131,13 @@
         <v>40</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2192,13 +2188,13 @@
         <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>40</v>
@@ -2213,7 +2209,7 @@
         <v>40</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>40</v>
@@ -2224,14 +2220,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2250,16 +2246,16 @@
         <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2297,19 +2293,19 @@
         <v>40</v>
       </c>
       <c r="AB5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AC5" t="s" s="2">
+      <c r="AF5" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
@@ -2321,7 +2317,7 @@
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>40</v>
@@ -2330,7 +2326,7 @@
         <v>40</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>40</v>
@@ -2341,10 +2337,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2355,28 +2351,28 @@
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="L6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2426,19 +2422,19 @@
         <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>40</v>
@@ -2458,10 +2454,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2472,28 +2468,28 @@
         <v>38</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="I7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2543,19 +2539,19 @@
         <v>40</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>40</v>
@@ -2575,10 +2571,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2589,28 +2585,28 @@
         <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K8" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2660,19 +2656,19 @@
         <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>40</v>
@@ -2692,10 +2688,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2715,19 +2711,19 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2777,7 +2773,7 @@
         <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2789,7 +2785,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>40</v>
@@ -2809,10 +2805,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2832,19 +2828,19 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2870,31 +2866,31 @@
         <v>40</v>
       </c>
       <c r="X10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Y10" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Y10" t="s" s="2">
+      <c r="Z10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z10" t="s" s="2">
+      <c r="AA10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -2906,7 +2902,7 @@
         <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>40</v>
@@ -2926,10 +2922,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2949,19 +2945,19 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2987,31 +2983,31 @@
         <v>40</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Z11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3023,7 +3019,7 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>40</v>
@@ -3043,10 +3039,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3057,28 +3053,28 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3128,19 +3124,19 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>40</v>
@@ -3160,10 +3156,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3174,7 +3170,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>40</v>
@@ -3186,16 +3182,16 @@
         <v>40</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3221,43 +3217,43 @@
         <v>40</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>40</v>
@@ -3277,21 +3273,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>40</v>
@@ -3303,16 +3299,16 @@
         <v>40</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3362,28 +3358,28 @@
         <v>40</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>40</v>
@@ -3394,14 +3390,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3420,16 +3416,16 @@
         <v>40</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3479,7 +3475,7 @@
         <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
@@ -3500,7 +3496,7 @@
         <v>40</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>40</v>
@@ -3511,14 +3507,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3537,16 +3533,16 @@
         <v>40</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3596,7 +3592,7 @@
         <v>40</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
@@ -3608,7 +3604,7 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
@@ -3617,7 +3613,7 @@
         <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>40</v>
@@ -3628,14 +3624,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3648,25 +3644,25 @@
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>40</v>
@@ -3715,7 +3711,7 @@
         <v>40</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
@@ -3727,7 +3723,7 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>40</v>
@@ -3736,7 +3732,7 @@
         <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>40</v>
@@ -3747,10 +3743,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3770,19 +3766,19 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3832,7 +3828,7 @@
         <v>40</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
@@ -3844,30 +3840,30 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>166</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3887,19 +3883,19 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3949,7 +3945,7 @@
         <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
@@ -3961,16 +3957,16 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>40</v>
@@ -3981,10 +3977,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4004,19 +4000,19 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4066,7 +4062,7 @@
         <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
@@ -4078,16 +4074,16 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>40</v>
@@ -4098,14 +4094,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4121,16 +4117,16 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4181,7 +4177,7 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
@@ -4193,16 +4189,16 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>40</v>
@@ -4213,14 +4209,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4236,16 +4232,16 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4296,7 +4292,7 @@
         <v>40</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
@@ -4308,16 +4304,16 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>40</v>
@@ -4328,45 +4324,45 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K23" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>40</v>
@@ -4415,28 +4411,28 @@
         <v>40</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>40</v>
@@ -4447,10 +4443,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4458,31 +4454,31 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="J24" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K24" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4508,66 +4504,66 @@
         <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Z24" t="s" s="2">
+      <c r="AA24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AA24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4575,31 +4571,31 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="J25" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K25" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4625,55 +4621,55 @@
         <v>40</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AA25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>40</v>
@@ -4681,10 +4677,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4704,22 +4700,22 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>40</v>
@@ -4744,14 +4740,14 @@
         <v>40</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4768,7 +4764,7 @@
         <v>40</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
@@ -4780,19 +4776,19 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AM26" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AN26" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>40</v>
@@ -4800,10 +4796,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4814,25 +4810,25 @@
         <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4840,76 +4836,76 @@
         <v>40</v>
       </c>
       <c r="Q27" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="R27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AA27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>40</v>
@@ -4917,10 +4913,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4931,103 +4927,103 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="O28" t="s" s="2">
+      <c r="P28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="P28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q28" t="s" s="2">
+      <c r="R28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="R28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>40</v>
@@ -5038,42 +5034,42 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5099,70 +5095,70 @@
         <v>40</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Z29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AA29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>266</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5178,19 +5174,19 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5216,14 +5212,14 @@
         <v>40</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Z30" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="AA30" t="s" s="2">
         <v>40</v>
       </c>
@@ -5240,7 +5236,7 @@
         <v>40</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
@@ -5249,33 +5245,33 @@
         <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AM30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5286,29 +5282,29 @@
         <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K31" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>40</v>
@@ -5357,28 +5353,28 @@
         <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>40</v>
@@ -5389,10 +5385,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5400,28 +5396,28 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K32" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5472,71 +5468,71 @@
         <v>40</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5587,71 +5583,71 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K34" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5702,42 +5698,42 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5748,25 +5744,25 @@
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K35" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5793,95 +5789,95 @@
         <v>40</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AA35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AA35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5932,74 +5928,74 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>328</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K37" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6049,74 +6045,74 @@
         <v>40</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>339</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K38" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6142,55 +6138,55 @@
         <v>40</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="Z38" t="s" s="2">
+      <c r="AA38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AA38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>40</v>
@@ -6198,14 +6194,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6221,19 +6217,19 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6283,7 +6279,7 @@
         <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -6295,19 +6291,19 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM39" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="AN39" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>40</v>
@@ -6315,10 +6311,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6338,16 +6334,16 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6374,14 +6370,14 @@
         <v>40</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>40</v>
       </c>
@@ -6398,7 +6394,7 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -6410,7 +6406,7 @@
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>40</v>
@@ -6419,10 +6415,10 @@
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>40</v>
@@ -6430,10 +6426,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6453,16 +6449,16 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6513,7 +6509,7 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -6525,7 +6521,7 @@
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>40</v>
@@ -6534,10 +6530,10 @@
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>40</v>
@@ -6545,10 +6541,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6568,19 +6564,19 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6606,14 +6602,14 @@
         <v>40</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6630,7 +6626,7 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -6642,19 +6638,19 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>40</v>
@@ -6662,10 +6658,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6685,19 +6681,19 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6747,7 +6743,7 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -6759,19 +6755,19 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AM43" t="s" s="2">
-        <v>387</v>
-      </c>
       <c r="AN43" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>40</v>
@@ -6779,10 +6775,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6805,13 +6801,13 @@
         <v>40</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6862,7 +6858,7 @@
         <v>40</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -6874,16 +6870,16 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>40</v>
@@ -6894,14 +6890,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6920,16 +6916,16 @@
         <v>40</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6979,7 +6975,7 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -6991,16 +6987,16 @@
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>40</v>
@@ -7011,10 +7007,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7034,19 +7030,19 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7096,7 +7092,7 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
@@ -7108,16 +7104,16 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>40</v>
@@ -7128,14 +7124,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7151,22 +7147,22 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>40</v>
@@ -7191,14 +7187,14 @@
         <v>40</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>40</v>
       </c>
@@ -7215,7 +7211,7 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -7227,30 +7223,30 @@
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>420</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7273,13 +7269,13 @@
         <v>40</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7330,7 +7326,7 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -7342,30 +7338,30 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>427</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7376,25 +7372,25 @@
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K49" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7445,28 +7441,28 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>40</v>
@@ -7477,10 +7473,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7503,16 +7499,16 @@
         <v>40</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7562,7 +7558,7 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -7574,16 +7570,16 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>40</v>
